--- a/medicine/Sexualité et sexologie/Palais_oriental/Palais_oriental.xlsx
+++ b/medicine/Sexualité et sexologie/Palais_oriental/Palais_oriental.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Palais oriental, connu localement sous le nom de PO, était une maison close rémoise[1], située à l'angle de la rue de la Magdeleine et de la rue Bacquenois (au no 39). Il faisait partie des nombreuses maisons closes de la ville de Reims, comme il y en avaient, à l'époque dans les villes de garnisons. Mais c'est le luxe des lieux (caractérisé par des décors mauresques[2]) qui fit sa renommée, de son ouverture en 1925 à sa fermeture en 1946. Le prestige du Palais Oriental rivalisait avec celui des maisons les plus luxueuses de Paris, le One-Two-Two et le Chabanais[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Palais oriental, connu localement sous le nom de PO, était une maison close rémoise, située à l'angle de la rue de la Magdeleine et de la rue Bacquenois (au no 39). Il faisait partie des nombreuses maisons closes de la ville de Reims, comme il y en avaient, à l'époque dans les villes de garnisons. Mais c'est le luxe des lieux (caractérisé par des décors mauresques) qui fit sa renommée, de son ouverture en 1925 à sa fermeture en 1946. Le prestige du Palais Oriental rivalisait avec celui des maisons les plus luxueuses de Paris, le One-Two-Two et le Chabanais.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Le bâtiment</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment était fortement inspiré de l'architecture mauresque, et ressemblait à une forteresse arabe.
 L'intérieur était orné de mosaïques et de fresques peintes à la main.
-Il devait son nom à ses décors orientaux, mosaïques et fresques peintes, ainsi qu'aux appellations de ses différents lieux telles que la chambre japonaise, la  chambre chinoise[4]...
-Il est l'œuvre des architectes Émile Thion et Marcel Rousseau également architectes du Cinéma-Opéra de Reims[5].
-L'établissement, interdit d'activité après la Seconde Guerre mondiale par la loi Marthe Richard, fut complètement rasé en 1973[6]et remplacé par une station service, elle-même fermée à ce jour.
+Il devait son nom à ses décors orientaux, mosaïques et fresques peintes, ainsi qu'aux appellations de ses différents lieux telles que la chambre japonaise, la  chambre chinoise...
+Il est l'œuvre des architectes Émile Thion et Marcel Rousseau également architectes du Cinéma-Opéra de Reims.
+L'établissement, interdit d'activité après la Seconde Guerre mondiale par la loi Marthe Richard, fut complètement rasé en 1973et remplacé par une station service, elle-même fermée à ce jour.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Inspiration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est la base de Chronique d'une maison close : Le Palais oriental ; un roman de Michelle A. Roy.
-En 2009, la chercheuse Nicole Canet publie Maisons closes, 1860-1946 : Bordels de femmes, bordels d’hommes. Parmi les bordels présentés dans le livre, le Palais oriental était le seul en dehors de Paris[7].
+En 2009, la chercheuse Nicole Canet publie Maisons closes, 1860-1946 : Bordels de femmes, bordels d’hommes. Parmi les bordels présentés dans le livre, le Palais oriental était le seul en dehors de Paris.
 </t>
         </is>
       </c>
